--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,520 +13294,520 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F248" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
+      <c r="F257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1438,364 +1438,364 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1837,11 +1837,11 @@
         </is>
       </c>
       <c r="I27" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K27" s="2" t="b">
@@ -3674,106 +3674,106 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13294,520 +13294,520 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
